--- a/Data/Excels/Synthetic/Depth without scale/3/ARAP_not_scaled_depth_FarPoints_3.xlsx
+++ b/Data/Excels/Synthetic/Depth without scale/3/ARAP_not_scaled_depth_FarPoints_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S220"/>
+  <dimension ref="A1:S224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11427,7 +11427,7 @@
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>17,59</t>
+          <t>17,60</t>
         </is>
       </c>
       <c r="R128" t="inlineStr"/>
@@ -11461,12 +11461,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -11546,17 +11546,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>8,70e-02</t>
+          <t>8,83e-04</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -11576,28 +11576,28 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-7,23</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>14,61</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>17,59</t>
         </is>
       </c>
       <c r="R130" t="inlineStr"/>
@@ -11631,17 +11631,17 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>5,78e-03</t>
+          <t>7,03e-04</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -11661,28 +11661,28 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>-7,27</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>14,61</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>17,59</t>
         </is>
       </c>
       <c r="R131" t="inlineStr"/>
@@ -11716,17 +11716,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>1,50e-03</t>
+          <t>8,70e-02</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -11746,28 +11746,28 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="R132" t="inlineStr"/>
@@ -11786,32 +11786,32 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>2,5</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>INITIAL</t>
+          <t>7 / 10</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>1,66e-01</t>
+          <t>5,37e-03</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -11831,32 +11831,28 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>4,56</t>
-        </is>
-      </c>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
-          <t>17,94</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>20,55</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="R133" t="inlineStr"/>
@@ -11875,32 +11871,32 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>2,5</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1 / 10</t>
+          <t>8 / 10</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,80</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>1,31e-02</t>
+          <t>1,66e-03</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -11920,28 +11916,28 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>-6,18</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>17,20</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>19,88</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="R134" t="inlineStr"/>
@@ -11960,32 +11956,32 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>2,5</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2 / 10</t>
+          <t>9 / 10</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2,81e-03</t>
+          <t>7,31e-04</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -12005,28 +12001,28 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>-5,54</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>17,13</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>19,83</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="R135" t="inlineStr"/>
@@ -12045,32 +12041,32 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>2,5</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>3 / 10</t>
+          <t>FINAL</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>1,35e-03</t>
+          <t>3,77e-04</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -12090,32 +12086,44 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr"/>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>2,50</t>
+        </is>
+      </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>17,12</t>
+          <t>5,50</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>19,83</t>
-        </is>
-      </c>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
+          <t>5,93</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>65,44</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>220,17</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -12140,22 +12148,22 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>4 / 10</t>
+          <t>INITIAL</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>8,89e-04</t>
+          <t>1,66e-01</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -12175,28 +12183,32 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr"/>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>4,56</t>
+        </is>
+      </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>17,12</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>19,82</t>
+          <t>20,55</t>
         </is>
       </c>
       <c r="R137" t="inlineStr"/>
@@ -12225,22 +12237,22 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>5 / 10</t>
+          <t>1 / 10</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>9,36e-02</t>
+          <t>1,31e-02</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -12260,28 +12272,28 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>17,20</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>19,88</t>
         </is>
       </c>
       <c r="R138" t="inlineStr"/>
@@ -12310,22 +12322,22 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>6 / 10</t>
+          <t>2 / 10</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>5,70e-03</t>
+          <t>2,81e-03</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -12345,28 +12357,28 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>8,61</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>17,13</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>19,83</t>
         </is>
       </c>
       <c r="R139" t="inlineStr"/>
@@ -12395,22 +12407,22 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>7 / 10</t>
+          <t>3 / 10</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>1,57e-03</t>
+          <t>1,35e-03</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -12430,28 +12442,28 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>17,12</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>19,83</t>
         </is>
       </c>
       <c r="R140" t="inlineStr"/>
@@ -12480,22 +12492,22 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>8 / 10</t>
+          <t>4 / 10</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>1,07e-03</t>
+          <t>8,89e-04</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -12515,28 +12527,28 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>17,12</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>19,82</t>
         </is>
       </c>
       <c r="R141" t="inlineStr"/>
@@ -12565,22 +12577,22 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>9 / 10</t>
+          <t>5 / 10</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>9,18e-04</t>
+          <t>9,36e-02</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -12600,28 +12612,28 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="R142" t="inlineStr"/>
@@ -12650,22 +12662,22 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>FINAL</t>
+          <t>6 / 10</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>8,51e-04</t>
+          <t>5,70e-03</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -12685,44 +12697,32 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>8,61</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>4,56</t>
-        </is>
-      </c>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>6,95</t>
-        </is>
-      </c>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>64,20</t>
-        </is>
-      </c>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>140,74</t>
-        </is>
-      </c>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -12737,32 +12737,32 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>INITIAL</t>
+          <t>7 / 10</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>7,31e-01</t>
+          <t>1,57e-03</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -12782,32 +12782,28 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>16,23</t>
-        </is>
-      </c>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>36,11</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>44,80</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="R144" t="inlineStr"/>
@@ -12826,32 +12822,32 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1 / 10</t>
+          <t>8 / 10</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>4,97e-02</t>
+          <t>1,07e-03</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -12871,28 +12867,28 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>7,74</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>-16,39</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>35,33</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>43,61</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="R145" t="inlineStr"/>
@@ -12911,32 +12907,32 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2 / 10</t>
+          <t>9 / 10</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>8,90e-03</t>
+          <t>9,18e-04</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -12956,28 +12952,28 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>9,31</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>-18,31</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>35,28</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>43,53</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="R146" t="inlineStr"/>
@@ -12996,32 +12992,32 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>3 / 10</t>
+          <t>FINAL</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>4,53e-03</t>
+          <t>8,51e-04</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -13041,32 +13037,44 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>9,75</t>
+          <t>9,3</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-18,26</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr"/>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>4,56</t>
+        </is>
+      </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>35,28</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>43,53</t>
-        </is>
-      </c>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
+          <t>6,95</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>64,20</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>140,74</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -13091,22 +13099,22 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>4 / 10</t>
+          <t>INITIAL</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>3,20e-03</t>
+          <t>7,31e-01</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -13126,28 +13134,32 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>9,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-18,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="O148" t="inlineStr"/>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>16,23</t>
+        </is>
+      </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>35,27</t>
+          <t>36,11</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>43,52</t>
+          <t>44,80</t>
         </is>
       </c>
       <c r="R148" t="inlineStr"/>
@@ -13176,22 +13188,22 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>5 / 10</t>
+          <t>1 / 10</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2,68e-03</t>
+          <t>4,97e-02</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -13211,28 +13223,28 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>9,75</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>-18,08</t>
+          <t>-16,39</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>35,27</t>
+          <t>35,33</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>43,52</t>
+          <t>43,61</t>
         </is>
       </c>
       <c r="R149" t="inlineStr"/>
@@ -13261,22 +13273,22 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>6 / 10</t>
+          <t>2 / 10</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2,49e-03</t>
+          <t>8,90e-03</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -13296,28 +13308,28 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>9,71</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>-18,02</t>
+          <t>-18,31</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>35,25</t>
+          <t>35,28</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>43,51</t>
+          <t>43,53</t>
         </is>
       </c>
       <c r="R150" t="inlineStr"/>
@@ -13346,22 +13358,22 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>7 / 10</t>
+          <t>3 / 10</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2,47e-03</t>
+          <t>4,53e-03</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -13381,28 +13393,28 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>9,75</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>-17,97</t>
+          <t>-18,26</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
-          <t>35,22</t>
+          <t>35,28</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>43,48</t>
+          <t>43,53</t>
         </is>
       </c>
       <c r="R151" t="inlineStr"/>
@@ -13431,22 +13443,22 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>8 / 10</t>
+          <t>4 / 10</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2,40</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2,42e-03</t>
+          <t>3,20e-03</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -13466,28 +13478,28 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>-17,91</t>
+          <t>-18,16</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
-          <t>35,16</t>
+          <t>35,27</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>43,45</t>
+          <t>43,52</t>
         </is>
       </c>
       <c r="R152" t="inlineStr"/>
@@ -13516,22 +13528,22 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>9 / 10</t>
+          <t>5 / 10</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2,38e-03</t>
+          <t>2,68e-03</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -13551,28 +13563,28 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>9,75</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-17,81</t>
+          <t>-18,08</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
-          <t>35,08</t>
+          <t>35,27</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>43,38</t>
+          <t>43,52</t>
         </is>
       </c>
       <c r="R153" t="inlineStr"/>
@@ -13601,22 +13613,22 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>FINAL</t>
+          <t>6 / 10</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1,90</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2,36e-03</t>
+          <t>2,49e-03</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -13636,12 +13648,12 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>9,52</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>-17,79</t>
+          <t>-18,02</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -13649,31 +13661,19 @@
           <t>0,15</t>
         </is>
       </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>16,23</t>
-        </is>
-      </c>
+      <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
-          <t>35,04</t>
+          <t>35,25</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>43,36</t>
-        </is>
-      </c>
-      <c r="R154" t="inlineStr">
-        <is>
-          <t>2,96</t>
-        </is>
-      </c>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>215,86</t>
-        </is>
-      </c>
+          <t>43,51</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -13688,32 +13688,32 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>INITIAL</t>
+          <t>7 / 10</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>1,66e-01</t>
+          <t>2,47e-03</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -13733,32 +13733,28 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,97</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
-          <t>20,71</t>
+          <t>35,22</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>24,24</t>
+          <t>43,48</t>
         </is>
       </c>
       <c r="R155" t="inlineStr"/>
@@ -13777,32 +13773,32 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>1 / 10</t>
+          <t>8 / 10</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>2,40</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>1,03e-02</t>
+          <t>2,42e-03</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -13822,28 +13818,28 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>9,64</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>-17,91</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>19,84</t>
+          <t>35,16</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>23,44</t>
+          <t>43,45</t>
         </is>
       </c>
       <c r="R156" t="inlineStr"/>
@@ -13862,32 +13858,32 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2 / 10</t>
+          <t>9 / 10</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>3,56e-03</t>
+          <t>2,38e-03</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -13907,28 +13903,28 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>10,31</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>-5,96</t>
+          <t>-17,81</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
-          <t>19,81</t>
+          <t>35,08</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>23,41</t>
+          <t>43,38</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -13947,32 +13943,32 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>3 / 10</t>
+          <t>FINAL</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,90</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>8,35e-02</t>
+          <t>2,36e-03</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -13992,32 +13988,44 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-17,79</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>-1,43</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr"/>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>16,23</t>
+        </is>
+      </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>14,89</t>
+          <t>35,04</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>15,43</t>
-        </is>
-      </c>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
+          <t>43,36</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>215,86</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -14042,22 +14050,22 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>4 / 10</t>
+          <t>INITIAL</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>4,63e-03</t>
+          <t>1,66e-01</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -14077,28 +14085,32 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr"/>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>14,60</t>
+          <t>20,71</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>15,09</t>
+          <t>24,24</t>
         </is>
       </c>
       <c r="R159" t="inlineStr"/>
@@ -14127,22 +14139,22 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>5 / 10</t>
+          <t>1 / 10</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,80</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>7,73e-04</t>
+          <t>1,03e-02</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -14162,28 +14174,28 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr">
         <is>
-          <t>14,56</t>
+          <t>19,84</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>15,05</t>
+          <t>23,44</t>
         </is>
       </c>
       <c r="R160" t="inlineStr"/>
@@ -14212,22 +14224,22 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>6 / 10</t>
+          <t>2 / 10</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>3,02e-04</t>
+          <t>3,56e-03</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -14247,28 +14259,28 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>10,31</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
         <is>
-          <t>14,55</t>
+          <t>19,81</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>15,04</t>
+          <t>23,41</t>
         </is>
       </c>
       <c r="R161" t="inlineStr"/>
@@ -14297,22 +14309,22 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>7 / 10</t>
+          <t>3 / 10</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>1,94e-04</t>
+          <t>8,35e-02</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -14332,28 +14344,28 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>14,54</t>
+          <t>14,89</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>15,03</t>
+          <t>15,43</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -14382,22 +14394,22 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>8 / 10</t>
+          <t>4 / 10</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>1,56e-04</t>
+          <t>4,63e-03</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -14417,28 +14429,28 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
-          <t>14,54</t>
+          <t>14,60</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>15,03</t>
+          <t>15,09</t>
         </is>
       </c>
       <c r="R163" t="inlineStr"/>
@@ -14467,7 +14479,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>9 / 10</t>
+          <t>5 / 10</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -14477,12 +14489,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>1,36e-04</t>
+          <t>7,73e-04</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -14502,28 +14514,28 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
         <is>
-          <t>14,54</t>
+          <t>14,56</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>15,03</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="R164" t="inlineStr"/>
@@ -14552,22 +14564,22 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FINAL</t>
+          <t>6 / 10</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>1,23e-04</t>
+          <t>3,02e-04</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -14587,44 +14599,32 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>-1,8</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
         <is>
-          <t>14,54</t>
+          <t>14,55</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>15,02</t>
-        </is>
-      </c>
-      <c r="R165" t="inlineStr">
-        <is>
-          <t>29,81</t>
-        </is>
-      </c>
-      <c r="S165" t="inlineStr">
-        <is>
-          <t>145,37</t>
-        </is>
-      </c>
+          <t>15,04</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -14639,32 +14639,32 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>INITIAL</t>
+          <t>7 / 10</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>8,33e-01</t>
+          <t>1,94e-04</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -14684,32 +14684,28 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="O166" t="inlineStr">
-        <is>
-          <t>18,52</t>
-        </is>
-      </c>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr">
         <is>
-          <t>37,69</t>
+          <t>14,54</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>47,62</t>
+          <t>15,03</t>
         </is>
       </c>
       <c r="R166" t="inlineStr"/>
@@ -14728,32 +14724,32 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>1 / 10</t>
+          <t>8 / 10</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>6,06e-02</t>
+          <t>1,56e-04</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -14773,28 +14769,28 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>-11,82</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
-          <t>36,01</t>
+          <t>14,54</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>45,06</t>
+          <t>15,03</t>
         </is>
       </c>
       <c r="R167" t="inlineStr"/>
@@ -14813,32 +14809,32 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2 / 10</t>
+          <t>9 / 10</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>4,22e-01</t>
+          <t>1,36e-04</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -14858,28 +14854,28 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>-9,32</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
         <is>
-          <t>17,27</t>
+          <t>14,54</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>15,03</t>
         </is>
       </c>
       <c r="R168" t="inlineStr"/>
@@ -14898,32 +14894,32 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>3 / 10</t>
+          <t>FINAL</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2,14e-02</t>
+          <t>1,23e-04</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -14943,32 +14939,44 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>13,78</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>-12,34</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr"/>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>18,84</t>
+          <t>14,54</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>20,73</t>
-        </is>
-      </c>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="inlineStr"/>
+          <t>15,02</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>29,81</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>145,37</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -14993,22 +15001,22 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>4 / 10</t>
+          <t>INITIAL</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>7,58e-03</t>
+          <t>8,33e-01</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -15028,28 +15036,32 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>13,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>-12,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>-1,38</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr"/>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>18,52</t>
+        </is>
+      </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>18,93</t>
+          <t>37,69</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>20,85</t>
+          <t>47,62</t>
         </is>
       </c>
       <c r="R170" t="inlineStr"/>
@@ -15078,22 +15090,22 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>5 / 10</t>
+          <t>1 / 10</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1,90</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>5,04e-03</t>
+          <t>6,06e-02</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -15113,28 +15125,28 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>13,86</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>-12,77</t>
+          <t>-11,82</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>36,01</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>20,88</t>
+          <t>45,06</t>
         </is>
       </c>
       <c r="R171" t="inlineStr"/>
@@ -15163,7 +15175,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>6 / 10</t>
+          <t>2 / 10</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -15178,7 +15190,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>3,87e-01</t>
+          <t>4,22e-01</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -15198,28 +15210,28 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>11,65</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>-12,99</t>
+          <t>-9,32</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
-          <t>16,49</t>
+          <t>17,27</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>17,72</t>
+          <t>18,96</t>
         </is>
       </c>
       <c r="R172" t="inlineStr"/>
@@ -15248,22 +15260,22 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>7 / 10</t>
+          <t>3 / 10</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2,05e-02</t>
+          <t>2,14e-02</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -15283,28 +15295,28 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>13,78</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>-21,9</t>
+          <t>-12,34</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr">
         <is>
-          <t>18,46</t>
+          <t>18,84</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>20,11</t>
+          <t>20,73</t>
         </is>
       </c>
       <c r="R173" t="inlineStr"/>
@@ -15333,22 +15345,22 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>8 / 10</t>
+          <t>4 / 10</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>1,03e-02</t>
+          <t>7,58e-03</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -15368,28 +15380,28 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>20,59</t>
+          <t>13,57</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>-21,46</t>
+          <t>-12,71</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr">
         <is>
-          <t>18,57</t>
+          <t>18,93</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>20,21</t>
+          <t>20,85</t>
         </is>
       </c>
       <c r="R174" t="inlineStr"/>
@@ -15418,22 +15430,22 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>9 / 10</t>
+          <t>5 / 10</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,90</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>8,56e-03</t>
+          <t>5,04e-03</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -15453,28 +15465,28 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>20,88</t>
+          <t>13,86</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>-21,4</t>
+          <t>-12,77</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>18,60</t>
+          <t>18,96</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>20,23</t>
+          <t>20,88</t>
         </is>
       </c>
       <c r="R175" t="inlineStr"/>
@@ -15503,22 +15515,22 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>FINAL</t>
+          <t>6 / 10</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>7,66e-03</t>
+          <t>3,87e-01</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -15538,44 +15550,32 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>21,23</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>-21,26</t>
+          <t>-12,99</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>-2,25</t>
-        </is>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>18,52</t>
-        </is>
-      </c>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr">
         <is>
-          <t>18,62</t>
+          <t>16,49</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20,25</t>
-        </is>
-      </c>
-      <c r="R176" t="inlineStr">
-        <is>
-          <t>50,60</t>
-        </is>
-      </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>100,55</t>
-        </is>
-      </c>
+          <t>17,72</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -15585,37 +15585,37 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Gradual</t>
+          <t>Planar</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>INITIAL</t>
+          <t>7 / 10</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2,60</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>4,44e-01</t>
+          <t>2,05e-02</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -15635,32 +15635,28 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,9</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>39,57</t>
-        </is>
-      </c>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
-          <t>57,75</t>
+          <t>18,46</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>89,43</t>
+          <t>20,11</t>
         </is>
       </c>
       <c r="R177" t="inlineStr"/>
@@ -15674,37 +15670,37 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Gradual</t>
+          <t>Planar</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>1 / 10</t>
+          <t>8 / 10</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>1,63e-01</t>
+          <t>1,03e-02</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -15724,28 +15720,28 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>-35,13</t>
+          <t>20,59</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>-11,56</t>
+          <t>-21,46</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>-7,24</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr">
         <is>
-          <t>54,93</t>
+          <t>18,57</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>87,39</t>
+          <t>20,21</t>
         </is>
       </c>
       <c r="R178" t="inlineStr"/>
@@ -15759,37 +15755,37 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Gradual</t>
+          <t>Planar</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>2 / 10</t>
+          <t>9 / 10</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>1,49e-01</t>
+          <t>8,56e-03</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -15809,28 +15805,28 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>-35,17</t>
+          <t>20,88</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>-14,2</t>
+          <t>-21,4</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>-7,22</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr">
         <is>
-          <t>54,87</t>
+          <t>18,60</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>87,28</t>
+          <t>20,23</t>
         </is>
       </c>
       <c r="R179" t="inlineStr"/>
@@ -15844,37 +15840,37 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Gradual</t>
+          <t>Planar</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>3 / 10</t>
+          <t>FINAL</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>1,29e-01</t>
+          <t>7,66e-03</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -15894,32 +15890,44 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>-34,78</t>
+          <t>21,23</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-15,99</t>
+          <t>-21,26</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>-7,17</t>
-        </is>
-      </c>
-      <c r="O180" t="inlineStr"/>
+          <t>-2,25</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>18,52</t>
+        </is>
+      </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>54,84</t>
+          <t>18,62</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>87,21</t>
-        </is>
-      </c>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="inlineStr"/>
+          <t>20,25</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>50,60</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>100,55</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -15944,22 +15952,22 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>4 / 10</t>
+          <t>INITIAL</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,60</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>1,25e-01</t>
+          <t>4,44e-01</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -15979,28 +15987,32 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>-34,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>-16,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>-7,32</t>
-        </is>
-      </c>
-      <c r="O181" t="inlineStr"/>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>39,57</t>
+        </is>
+      </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>54,78</t>
+          <t>57,75</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>87,16</t>
+          <t>89,43</t>
         </is>
       </c>
       <c r="R181" t="inlineStr"/>
@@ -16029,22 +16041,22 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>5 / 10</t>
+          <t>1 / 10</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>1,34e-01</t>
+          <t>1,63e-01</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -16064,12 +16076,12 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>-34,14</t>
+          <t>-35,13</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>-16,37</t>
+          <t>-11,56</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -16080,12 +16092,12 @@
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
-          <t>54,75</t>
+          <t>54,93</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>87,13</t>
+          <t>87,39</t>
         </is>
       </c>
       <c r="R182" t="inlineStr"/>
@@ -16114,22 +16126,22 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>6 / 10</t>
+          <t>2 / 10</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>1,25e-01</t>
+          <t>1,49e-01</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -16149,28 +16161,28 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>-33,93</t>
+          <t>-35,17</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-16,71</t>
+          <t>-14,2</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>-7,17</t>
+          <t>-7,22</t>
         </is>
       </c>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
-          <t>54,74</t>
+          <t>54,87</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>87,12</t>
+          <t>87,28</t>
         </is>
       </c>
       <c r="R183" t="inlineStr"/>
@@ -16199,22 +16211,22 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>7 / 10</t>
+          <t>3 / 10</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>1,25e-01</t>
+          <t>1,29e-01</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -16234,28 +16246,28 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>-34,32</t>
+          <t>-34,78</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>-16,98</t>
+          <t>-15,99</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>-7,36</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr">
         <is>
-          <t>54,70</t>
+          <t>54,84</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>87,09</t>
+          <t>87,21</t>
         </is>
       </c>
       <c r="R184" t="inlineStr"/>
@@ -16284,17 +16296,17 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>8 / 10</t>
+          <t>4 / 10</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -16319,28 +16331,28 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>-34,46</t>
+          <t>-34,06</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>-17,32</t>
+          <t>-16,05</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>-7,32</t>
         </is>
       </c>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr">
         <is>
-          <t>54,65</t>
+          <t>54,78</t>
         </is>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>87,05</t>
+          <t>87,16</t>
         </is>
       </c>
       <c r="R185" t="inlineStr"/>
@@ -16369,22 +16381,22 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>9 / 10</t>
+          <t>5 / 10</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>1,24e-01</t>
+          <t>1,34e-01</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -16404,28 +16416,28 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>-34,68</t>
+          <t>-34,14</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-17,69</t>
+          <t>-16,37</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>-7,49</t>
+          <t>-7,24</t>
         </is>
       </c>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr">
         <is>
-          <t>54,59</t>
+          <t>54,75</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>87,02</t>
+          <t>87,13</t>
         </is>
       </c>
       <c r="R186" t="inlineStr"/>
@@ -16454,22 +16466,22 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>FINAL</t>
+          <t>6 / 10</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2,40</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>1,22e-01</t>
+          <t>1,25e-01</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -16489,44 +16501,32 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>-35,0</t>
+          <t>-33,93</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>-18,14</t>
+          <t>-16,71</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>-7,59</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>39,57</t>
-        </is>
-      </c>
+          <t>-7,17</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr">
         <is>
-          <t>54,51</t>
+          <t>54,74</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>86,96</t>
-        </is>
-      </c>
-      <c r="R187" t="inlineStr">
-        <is>
-          <t>5,62</t>
-        </is>
-      </c>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>137,74</t>
-        </is>
-      </c>
+          <t>87,12</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -16541,32 +16541,32 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>2,5</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>INITIAL</t>
+          <t>7 / 10</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>6,73e-01</t>
+          <t>1,25e-01</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -16586,32 +16586,28 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-34,32</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,98</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>42,25</t>
-        </is>
-      </c>
+          <t>-7,36</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr">
         <is>
-          <t>62,30</t>
+          <t>54,70</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>97,75</t>
+          <t>87,09</t>
         </is>
       </c>
       <c r="R188" t="inlineStr"/>
@@ -16630,42 +16626,42 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>2,5</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>1 / 10</t>
+          <t>8 / 10</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2,58e-01</t>
+          <t>1,25e-01</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16675,28 +16671,28 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>-45,27</t>
+          <t>-34,46</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>-27,8</t>
+          <t>-17,32</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>-9,18</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr">
         <is>
-          <t>59,83</t>
+          <t>54,65</t>
         </is>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>95,35</t>
+          <t>87,05</t>
         </is>
       </c>
       <c r="R189" t="inlineStr"/>
@@ -16715,42 +16711,42 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>2,5</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2 / 10</t>
+          <t>9 / 10</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2,35e-01</t>
+          <t>1,24e-01</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16760,28 +16756,28 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>-47,48</t>
+          <t>-34,68</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-25,9</t>
+          <t>-17,69</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>-8,92</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr">
         <is>
-          <t>59,96</t>
+          <t>54,59</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>95,32</t>
+          <t>87,02</t>
         </is>
       </c>
       <c r="R190" t="inlineStr"/>
@@ -16800,42 +16796,42 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>2,5</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>3 / 10</t>
+          <t>FINAL</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>2,40</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2,24e-01</t>
+          <t>1,22e-01</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16845,32 +16841,44 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>-48,13</t>
+          <t>-35,0</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-25,35</t>
+          <t>-18,14</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>-8,88</t>
-        </is>
-      </c>
-      <c r="O191" t="inlineStr"/>
+          <t>-7,59</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>39,57</t>
+        </is>
+      </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>59,93</t>
+          <t>54,51</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>95,28</t>
-        </is>
-      </c>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="inlineStr"/>
+          <t>86,96</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>5,62</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>137,74</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -16895,32 +16903,32 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>4 / 10</t>
+          <t>INITIAL</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2,14e-01</t>
+          <t>6,73e-01</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16930,28 +16938,32 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>-49,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-25,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>-9,01</t>
-        </is>
-      </c>
-      <c r="O192" t="inlineStr"/>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>42,25</t>
+        </is>
+      </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>59,75</t>
+          <t>62,30</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>95,15</t>
+          <t>97,75</t>
         </is>
       </c>
       <c r="R192" t="inlineStr"/>
@@ -16980,22 +16992,22 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>5 / 10</t>
+          <t>1 / 10</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
           <t>3,19</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>3,11</t>
-        </is>
-      </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2,00e-01</t>
+          <t>2,58e-01</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -17015,28 +17027,28 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>-51,89</t>
+          <t>-45,27</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>-25,92</t>
+          <t>-27,8</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>-9,43</t>
+          <t>-9,18</t>
         </is>
       </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr">
         <is>
-          <t>59,36</t>
+          <t>59,83</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>94,90</t>
+          <t>95,35</t>
         </is>
       </c>
       <c r="R193" t="inlineStr"/>
@@ -17065,22 +17077,22 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>6 / 10</t>
+          <t>2 / 10</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>1,87e-01</t>
+          <t>2,35e-01</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -17100,28 +17112,28 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>-53,37</t>
+          <t>-47,48</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>-26,45</t>
+          <t>-25,9</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>-9,5</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr">
         <is>
-          <t>59,06</t>
+          <t>59,96</t>
         </is>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>94,70</t>
+          <t>95,32</t>
         </is>
       </c>
       <c r="R194" t="inlineStr"/>
@@ -17150,22 +17162,22 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>7 / 10</t>
+          <t>3 / 10</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>1,80e-01</t>
+          <t>2,24e-01</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -17185,28 +17197,28 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>-53,97</t>
+          <t>-48,13</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>-26,82</t>
+          <t>-25,35</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>-10,0</t>
+          <t>-8,88</t>
         </is>
       </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr">
         <is>
-          <t>58,91</t>
+          <t>59,93</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>94,60</t>
+          <t>95,28</t>
         </is>
       </c>
       <c r="R195" t="inlineStr"/>
@@ -17235,22 +17247,22 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>8 / 10</t>
+          <t>4 / 10</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>1,72e-01</t>
+          <t>2,14e-01</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -17270,28 +17282,28 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>-54,73</t>
+          <t>-49,72</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>-27,12</t>
+          <t>-25,31</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>-10,09</t>
+          <t>-9,01</t>
         </is>
       </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr">
         <is>
-          <t>58,75</t>
+          <t>59,75</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>94,50</t>
+          <t>95,15</t>
         </is>
       </c>
       <c r="R196" t="inlineStr"/>
@@ -17320,22 +17332,22 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>9 / 10</t>
+          <t>5 / 10</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>1,62e-01</t>
+          <t>2,00e-01</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -17355,28 +17367,28 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>-55,82</t>
+          <t>-51,89</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-27,66</t>
+          <t>-25,92</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>-10,26</t>
+          <t>-9,43</t>
         </is>
       </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr">
         <is>
-          <t>58,52</t>
+          <t>59,36</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>94,35</t>
+          <t>94,90</t>
         </is>
       </c>
       <c r="R197" t="inlineStr"/>
@@ -17405,22 +17417,22 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>FINAL</t>
+          <t>6 / 10</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>1,51e-01</t>
+          <t>1,87e-01</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -17440,44 +17452,32 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>-57,39</t>
+          <t>-53,37</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-28,43</t>
+          <t>-26,45</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>-11,01</t>
-        </is>
-      </c>
-      <c r="O198" t="inlineStr">
-        <is>
-          <t>42,25</t>
-        </is>
-      </c>
+          <t>-9,5</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr">
         <is>
-          <t>58,23</t>
+          <t>59,06</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>94,15</t>
-        </is>
-      </c>
-      <c r="R198" t="inlineStr">
-        <is>
-          <t>6,53</t>
-        </is>
-      </c>
-      <c r="S198" t="inlineStr">
-        <is>
-          <t>137,82</t>
-        </is>
-      </c>
+          <t>94,70</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -17492,42 +17492,42 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>INITIAL</t>
+          <t>7 / 10</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>1,08e+00</t>
+          <t>1,80e-01</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17537,32 +17537,28 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-53,97</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,82</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="O199" t="inlineStr">
-        <is>
-          <t>73,59</t>
-        </is>
-      </c>
+          <t>-10,0</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr">
         <is>
-          <t>96,62</t>
+          <t>58,91</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>151,94</t>
+          <t>94,60</t>
         </is>
       </c>
       <c r="R199" t="inlineStr"/>
@@ -17581,42 +17577,42 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>1 / 10</t>
+          <t>8 / 10</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>4,04e-01</t>
+          <t>1,72e-01</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17626,28 +17622,28 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>-73,25</t>
+          <t>-54,73</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>16,95</t>
+          <t>-27,12</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>-12,24</t>
+          <t>-10,09</t>
         </is>
       </c>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr">
         <is>
-          <t>92,97</t>
+          <t>58,75</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>149,00</t>
+          <t>94,50</t>
         </is>
       </c>
       <c r="R200" t="inlineStr"/>
@@ -17666,42 +17662,42 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>2 / 10</t>
+          <t>9 / 10</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>4,10e-01</t>
+          <t>1,62e-01</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17711,28 +17707,28 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>-76,24</t>
+          <t>-55,82</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>13,91</t>
+          <t>-27,66</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>-10,8</t>
+          <t>-10,26</t>
         </is>
       </c>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr">
         <is>
-          <t>92,89</t>
+          <t>58,52</t>
         </is>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>148,76</t>
+          <t>94,35</t>
         </is>
       </c>
       <c r="R201" t="inlineStr"/>
@@ -17751,42 +17747,42 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>3 / 10</t>
+          <t>FINAL</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>4,02e-01</t>
+          <t>1,51e-01</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17796,32 +17792,44 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>-76,55</t>
+          <t>-57,39</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>13,85</t>
+          <t>-28,43</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>-10,88</t>
-        </is>
-      </c>
-      <c r="O202" t="inlineStr"/>
+          <t>-11,01</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>42,25</t>
+        </is>
+      </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>92,90</t>
+          <t>58,23</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>148,74</t>
-        </is>
-      </c>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="inlineStr"/>
+          <t>94,15</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>6,53</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>137,82</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -17846,32 +17854,32 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>4 / 10</t>
+          <t>INITIAL</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>5,70</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>3,98e-01</t>
+          <t>1,08e+00</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17881,28 +17889,32 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>-76,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>13,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>-10,91</t>
-        </is>
-      </c>
-      <c r="O203" t="inlineStr"/>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>73,59</t>
+        </is>
+      </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>92,88</t>
+          <t>96,62</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>148,72</t>
+          <t>151,94</t>
         </is>
       </c>
       <c r="R203" t="inlineStr"/>
@@ -17931,22 +17943,22 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>5 / 10</t>
+          <t>1 / 10</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>3,94e-01</t>
+          <t>4,04e-01</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -17966,28 +17978,28 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>-76,69</t>
+          <t>-73,25</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>13,21</t>
+          <t>16,95</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>-10,99</t>
+          <t>-12,24</t>
         </is>
       </c>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr">
         <is>
-          <t>92,81</t>
+          <t>92,97</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>148,68</t>
+          <t>149,00</t>
         </is>
       </c>
       <c r="R204" t="inlineStr"/>
@@ -18016,22 +18028,22 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>6 / 10</t>
+          <t>2 / 10</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>3,89e-01</t>
+          <t>4,10e-01</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -18051,28 +18063,28 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>-77,1</t>
+          <t>-76,24</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>12,78</t>
+          <t>13,91</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>-11,1</t>
+          <t>-10,8</t>
         </is>
       </c>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr">
         <is>
-          <t>92,67</t>
+          <t>92,89</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>148,60</t>
+          <t>148,76</t>
         </is>
       </c>
       <c r="R205" t="inlineStr"/>
@@ -18101,22 +18113,22 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>7 / 10</t>
+          <t>3 / 10</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>3,84e-01</t>
+          <t>4,02e-01</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -18136,28 +18148,28 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>-77,52</t>
+          <t>-76,55</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>12,4</t>
+          <t>13,85</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>-11,22</t>
+          <t>-10,88</t>
         </is>
       </c>
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr">
         <is>
-          <t>92,53</t>
+          <t>92,90</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>148,53</t>
+          <t>148,74</t>
         </is>
       </c>
       <c r="R206" t="inlineStr"/>
@@ -18186,22 +18198,22 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>8 / 10</t>
+          <t>4 / 10</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>5,40</t>
+          <t>5,70</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>3,77e-01</t>
+          <t>3,98e-01</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -18221,28 +18233,28 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>-78,15</t>
+          <t>-76,52</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>11,91</t>
+          <t>13,73</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>-11,3</t>
+          <t>-10,91</t>
         </is>
       </c>
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
-          <t>92,36</t>
+          <t>92,88</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>148,43</t>
+          <t>148,72</t>
         </is>
       </c>
       <c r="R207" t="inlineStr"/>
@@ -18271,22 +18283,22 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>9 / 10</t>
+          <t>5 / 10</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>3,74e-01</t>
+          <t>3,94e-01</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -18306,28 +18318,28 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>-78,44</t>
+          <t>-76,69</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>11,65</t>
+          <t>13,21</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>-11,41</t>
+          <t>-10,99</t>
         </is>
       </c>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr">
         <is>
-          <t>92,27</t>
+          <t>92,81</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>148,39</t>
+          <t>148,68</t>
         </is>
       </c>
       <c r="R208" t="inlineStr"/>
@@ -18356,22 +18368,22 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>FINAL</t>
+          <t>6 / 10</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>3,68e-01</t>
+          <t>3,89e-01</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -18391,44 +18403,32 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>-79,01</t>
+          <t>-77,1</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>-11,5</t>
-        </is>
-      </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>73,59</t>
-        </is>
-      </c>
+          <t>-11,1</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr">
         <is>
-          <t>92,13</t>
+          <t>92,67</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>148,31</t>
-        </is>
-      </c>
-      <c r="R209" t="inlineStr">
-        <is>
-          <t>4,65</t>
-        </is>
-      </c>
-      <c r="S209" t="inlineStr">
-        <is>
-          <t>125,19</t>
-        </is>
-      </c>
+          <t>148,60</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -18443,42 +18443,42 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>INITIAL</t>
+          <t>7 / 10</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2,81e+00</t>
+          <t>3,84e-01</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18488,32 +18488,28 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-77,52</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,4</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>76,42</t>
-        </is>
-      </c>
+          <t>-11,22</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr">
         <is>
-          <t>106,01</t>
+          <t>92,53</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>144,81</t>
+          <t>148,53</t>
         </is>
       </c>
       <c r="R210" t="inlineStr"/>
@@ -18532,42 +18528,42 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>1 / 10</t>
+          <t>8 / 10</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>6,50</t>
+          <t>5,40</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>1,16e+00</t>
+          <t>3,77e-01</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18577,28 +18573,28 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>-126,73</t>
+          <t>-78,15</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>11,91</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>-17,29</t>
+          <t>-11,3</t>
         </is>
       </c>
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr">
         <is>
-          <t>103,05</t>
+          <t>92,36</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>141,46</t>
+          <t>148,43</t>
         </is>
       </c>
       <c r="R211" t="inlineStr"/>
@@ -18617,42 +18613,42 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>2 / 10</t>
+          <t>9 / 10</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>1,02e+00</t>
+          <t>3,74e-01</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18662,28 +18658,28 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>-136,66</t>
+          <t>-78,44</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>-18,33</t>
+          <t>-11,41</t>
         </is>
       </c>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr">
         <is>
-          <t>103,55</t>
+          <t>92,27</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>141,60</t>
+          <t>148,39</t>
         </is>
       </c>
       <c r="R212" t="inlineStr"/>
@@ -18702,42 +18698,42 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>3 / 10</t>
+          <t>FINAL</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>7,20</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>9,54e-01</t>
+          <t>3,68e-01</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18747,32 +18743,44 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>-137,46</t>
+          <t>-79,01</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>-18,48</t>
-        </is>
-      </c>
-      <c r="O213" t="inlineStr"/>
+          <t>-11,5</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>73,59</t>
+        </is>
+      </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>103,66</t>
+          <t>92,13</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>141,61</t>
-        </is>
-      </c>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="inlineStr"/>
+          <t>148,31</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>4,65</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>125,19</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -18797,32 +18805,32 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>4 / 10</t>
+          <t>INITIAL</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>9,22e-01</t>
+          <t>2,81e+00</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18832,28 +18840,32 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>-138,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>-18,52</t>
-        </is>
-      </c>
-      <c r="O214" t="inlineStr"/>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>76,42</t>
+        </is>
+      </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>103,72</t>
+          <t>106,01</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>141,62</t>
+          <t>144,81</t>
         </is>
       </c>
       <c r="R214" t="inlineStr"/>
@@ -18882,27 +18894,27 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>5 / 10</t>
+          <t>1 / 10</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>6,50</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>9,05e-01</t>
+          <t>1,16e+00</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -18917,28 +18929,28 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>-138,9</t>
+          <t>-126,73</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>-18,72</t>
+          <t>-17,29</t>
         </is>
       </c>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr">
         <is>
-          <t>103,76</t>
+          <t>103,05</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>141,62</t>
+          <t>141,46</t>
         </is>
       </c>
       <c r="R215" t="inlineStr"/>
@@ -18967,22 +18979,22 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>6 / 10</t>
+          <t>2 / 10</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>8,98e-01</t>
+          <t>1,02e+00</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -19002,28 +19014,28 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>-139,41</t>
+          <t>-136,66</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>-18,8</t>
+          <t>-18,33</t>
         </is>
       </c>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr">
         <is>
-          <t>103,74</t>
+          <t>103,55</t>
         </is>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>141,59</t>
+          <t>141,60</t>
         </is>
       </c>
       <c r="R216" t="inlineStr"/>
@@ -19052,22 +19064,22 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>7 / 10</t>
+          <t>3 / 10</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>7,20</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>8,90e-01</t>
+          <t>9,54e-01</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -19087,28 +19099,28 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>-139,6</t>
+          <t>-137,46</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>-18,82</t>
+          <t>-18,48</t>
         </is>
       </c>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="inlineStr">
         <is>
-          <t>103,73</t>
+          <t>103,66</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>141,57</t>
+          <t>141,61</t>
         </is>
       </c>
       <c r="R217" t="inlineStr"/>
@@ -19137,22 +19149,22 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>8 / 10</t>
+          <t>4 / 10</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>8,81e-01</t>
+          <t>9,22e-01</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -19172,28 +19184,28 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>-140,12</t>
+          <t>-138,01</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>-18,89</t>
+          <t>-18,52</t>
         </is>
       </c>
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="inlineStr">
         <is>
-          <t>103,62</t>
+          <t>103,72</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>141,50</t>
+          <t>141,62</t>
         </is>
       </c>
       <c r="R218" t="inlineStr"/>
@@ -19222,34 +19234,34 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>9 / 10</t>
+          <t>5 / 10</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>8,60e-01</t>
+          <t>9,05e-01</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
           <t>0,97</t>
         </is>
       </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>1,00</t>
@@ -19257,28 +19269,28 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>-141,35</t>
+          <t>-138,9</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>-19,23</t>
+          <t>-18,72</t>
         </is>
       </c>
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="inlineStr">
         <is>
-          <t>103,22</t>
+          <t>103,76</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>141,26</t>
+          <t>141,62</t>
         </is>
       </c>
       <c r="R219" t="inlineStr"/>
@@ -19307,75 +19319,415 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
+          <t>6 / 10</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>6,85</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>7,32</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>8,98e-01</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>-139,41</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>-18,8</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>103,74</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>141,59</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr"/>
+      <c r="S220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>7 / 10</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>6,85</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>7,32</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>8,90e-01</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>-139,6</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>-18,82</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>103,73</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>141,57</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr"/>
+      <c r="S221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>8 / 10</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>6,79</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>7,26</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>8,81e-01</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>-140,12</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>-18,89</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>103,62</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>141,50</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>9 / 10</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>6,61</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>7,06</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>8,60e-01</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>-141,35</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>-19,23</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>103,22</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>141,26</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr"/>
+      <c r="S223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
           <t>FINAL</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>6,44</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>6,88</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="H224" t="inlineStr">
         <is>
           <t>8,39e-01</t>
         </is>
       </c>
-      <c r="I220" t="inlineStr">
+      <c r="I224" t="inlineStr">
         <is>
           <t>0,97</t>
         </is>
       </c>
-      <c r="J220" t="inlineStr">
+      <c r="J224" t="inlineStr">
         <is>
           <t>0,97</t>
         </is>
       </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>-142,3</t>
         </is>
       </c>
-      <c r="M220" t="inlineStr">
+      <c r="M224" t="inlineStr">
         <is>
           <t>1,99</t>
         </is>
       </c>
-      <c r="N220" t="inlineStr">
+      <c r="N224" t="inlineStr">
         <is>
           <t>-19,32</t>
         </is>
       </c>
-      <c r="O220" t="inlineStr">
+      <c r="O224" t="inlineStr">
         <is>
           <t>76,42</t>
         </is>
       </c>
-      <c r="P220" t="inlineStr">
+      <c r="P224" t="inlineStr">
         <is>
           <t>102,89</t>
         </is>
       </c>
-      <c r="Q220" t="inlineStr">
+      <c r="Q224" t="inlineStr">
         <is>
           <t>141,06</t>
         </is>
       </c>
-      <c r="R220" t="inlineStr">
+      <c r="R224" t="inlineStr">
         <is>
           <t>2,95</t>
         </is>
       </c>
-      <c r="S220" t="inlineStr">
+      <c r="S224" t="inlineStr">
         <is>
           <t>134,64</t>
         </is>
